--- a/DataConfig/Datas/__beans__.xlsx
+++ b/DataConfig/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18165" windowHeight="6060"/>
+    <workbookView windowWidth="22200" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>

--- a/DataConfig/Datas/__beans__.xlsx
+++ b/DataConfig/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22200" windowHeight="13140"/>
+    <workbookView windowWidth="18525" windowHeight="17790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>离开时间</t>
+  </si>
+  <si>
+    <t>common.value_region</t>
+  </si>
+  <si>
+    <t>start_value</t>
+  </si>
+  <si>
+    <t>闭区间</t>
+  </si>
+  <si>
+    <t>end_value</t>
   </si>
 </sst>
 </file>
@@ -1060,13 +1072,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="3" width="20.6333333333333" customWidth="1"/>
     <col min="4" max="5" width="12.25" customWidth="1"/>
@@ -1213,6 +1225,34 @@
         <v>32</v>
       </c>
     </row>
+    <row r="9" spans="2:11">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="8:11">
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/DataConfig/Datas/__beans__.xlsx
+++ b/DataConfig/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="17790"/>
+    <workbookView windowWidth="22365" windowHeight="16620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -125,6 +125,30 @@
   </si>
   <si>
     <t>end_value</t>
+  </si>
+  <si>
+    <t>food.qte_info</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>start_area</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>生效区间百分比</t>
+  </si>
+  <si>
+    <t>end_area</t>
+  </si>
+  <si>
+    <t>qte_id</t>
+  </si>
+  <si>
+    <t>对应qte操作</t>
   </si>
 </sst>
 </file>
@@ -1072,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1253,6 +1277,45 @@
         <v>35</v>
       </c>
     </row>
+    <row r="11" spans="2:11">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="8:11">
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="8:11">
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/DataConfig/Datas/__beans__.xlsx
+++ b/DataConfig/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22365" windowHeight="16620"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -149,6 +149,21 @@
   </si>
   <si>
     <t>对应qte操作</t>
+  </si>
+  <si>
+    <t>dialogue.comment</t>
+  </si>
+  <si>
+    <t>生效区间</t>
+  </si>
+  <si>
+    <t>结束区间</t>
+  </si>
+  <si>
+    <t>dialogue_id</t>
+  </si>
+  <si>
+    <t>对话id</t>
   </si>
 </sst>
 </file>
@@ -1096,10 +1111,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1316,6 +1331,45 @@
         <v>44</v>
       </c>
     </row>
+    <row r="14" spans="2:11">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="8:11">
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="8:11">
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/DataConfig/Datas/__beans__.xlsx
+++ b/DataConfig/Datas/__beans__.xlsx
@@ -1114,7 +1114,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/DataConfig/Datas/__beans__.xlsx
+++ b/DataConfig/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="30885" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -127,10 +127,64 @@
     <t>end_value</t>
   </si>
   <si>
+    <t>common.weather_group</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>WeatherA</t>
+  </si>
+  <si>
+    <t>common.Weather</t>
+  </si>
+  <si>
+    <t>晴天</t>
+  </si>
+  <si>
+    <t>WeatherWeightA</t>
+  </si>
+  <si>
+    <t>权重</t>
+  </si>
+  <si>
+    <t>WeatherB</t>
+  </si>
+  <si>
+    <t>雨天</t>
+  </si>
+  <si>
+    <t>WeatherWeightB</t>
+  </si>
+  <si>
+    <t>WeatherC</t>
+  </si>
+  <si>
+    <t>雪</t>
+  </si>
+  <si>
+    <t>WeatherWeightC</t>
+  </si>
+  <si>
+    <t>WeatherD</t>
+  </si>
+  <si>
+    <t>台风</t>
+  </si>
+  <si>
+    <t>WeatherWeightD</t>
+  </si>
+  <si>
+    <t>WeatherE</t>
+  </si>
+  <si>
+    <t>暴风雪</t>
+  </si>
+  <si>
+    <t>WeatherWeightE</t>
+  </si>
+  <si>
     <t>food.qte_info</t>
-  </si>
-  <si>
-    <t>;</t>
   </si>
   <si>
     <t>start_area</t>
@@ -169,7 +223,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -199,48 +253,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,6 +310,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -324,6 +364,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,18 +404,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,19 +506,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,115 +530,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,21 +583,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -576,6 +615,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,148 +688,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -783,10 +837,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -795,52 +849,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1111,10 +1165,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1314,60 +1368,176 @@
         <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="8:11">
       <c r="H13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
+    </row>
+    <row r="14" spans="8:11">
       <c r="H14" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
         <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="8:11">
       <c r="H15" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="8:11">
       <c r="H16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
         <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11">
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="8:11">
+      <c r="H18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11">
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="8:11">
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="8:11">
+      <c r="H22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="8:11">
+      <c r="H23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="8:11">
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="8:11">
+      <c r="H26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Datas/__beans__.xlsx
+++ b/DataConfig/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30885" windowHeight="17655"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -103,10 +103,22 @@
     <t>平日</t>
   </si>
   <si>
-    <t>enter_time</t>
-  </si>
-  <si>
-    <t>进入时间</t>
+    <t>weather_limit</t>
+  </si>
+  <si>
+    <t>(list#sep=;),common.Weather</t>
+  </si>
+  <si>
+    <t>天气</t>
+  </si>
+  <si>
+    <t>enter_time_begin</t>
+  </si>
+  <si>
+    <t>进入时间区间</t>
+  </si>
+  <si>
+    <t>enter_time_end</t>
   </si>
   <si>
     <t>leave_time</t>
@@ -1165,19 +1177,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="3" width="20.6333333333333" customWidth="1"/>
     <col min="4" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="8.21666666666667" customWidth="1"/>
+    <col min="8" max="8" width="19.775" customWidth="1"/>
+    <col min="9" max="9" width="25.425" customWidth="1"/>
     <col min="10" max="10" width="10.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1296,54 +1309,49 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="8:11">
+    <row r="7" spans="2:11">
+      <c r="B7" s="3"/>
       <c r="H7" t="s">
         <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="8:11">
       <c r="H8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
         <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
+    </row>
+    <row r="9" spans="8:11">
       <c r="H9" t="s">
         <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="8:11">
       <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
         <v>36</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -1351,35 +1359,41 @@
         <v>37</v>
       </c>
       <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
         <v>38</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
         <v>39</v>
-      </c>
-      <c r="I11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="8:11">
       <c r="H12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s">
         <v>21</v>
       </c>
       <c r="K12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="8:11">
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>44</v>
-      </c>
-      <c r="I13" t="s">
-        <v>40</v>
       </c>
       <c r="K13" t="s">
         <v>45</v>
@@ -1393,151 +1407,173 @@
         <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="8:11">
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="8:11">
       <c r="H16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s">
         <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="8:11">
       <c r="H17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="8:11">
       <c r="H18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s">
         <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="8:11">
       <c r="H19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="8:11">
       <c r="H20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I20" t="s">
         <v>21</v>
       </c>
       <c r="K20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" t="s">
-        <v>38</v>
-      </c>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="8:11">
       <c r="H21" t="s">
         <v>57</v>
       </c>
       <c r="I21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" t="s">
         <v>58</v>
-      </c>
-      <c r="K21" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22" spans="8:11">
       <c r="H22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" t="s">
         <v>60</v>
       </c>
-      <c r="I22" t="s">
-        <v>58</v>
-      </c>
-      <c r="K22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="8:11">
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
       <c r="H23" t="s">
         <v>61</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="K23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="8:11">
+      <c r="H24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" t="s">
+      <c r="K24" t="s">
         <v>63</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="25" spans="8:11">
       <c r="H25" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="I25" t="s">
         <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="8:11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
       <c r="H26" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s">
         <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="8:11">
+      <c r="H27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="8:11">
+      <c r="H28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Datas/__beans__.xlsx
+++ b/DataConfig/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="21840" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
   <si>
     <t>##var</t>
   </si>
@@ -230,6 +230,21 @@
   </si>
   <si>
     <t>对话id</t>
+  </si>
+  <si>
+    <t>common.behaviour_group</t>
+  </si>
+  <si>
+    <t>behaviour</t>
+  </si>
+  <si>
+    <t>character.behaviour</t>
+  </si>
+  <si>
+    <t>行为</t>
+  </si>
+  <si>
+    <t>weight</t>
   </si>
 </sst>
 </file>
@@ -1177,15 +1192,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="20.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="22.2666666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.6333333333333" customWidth="1"/>
     <col min="4" max="5" width="12.25" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="8.21666666666667" customWidth="1"/>
@@ -1576,6 +1592,34 @@
         <v>71</v>
       </c>
     </row>
+    <row r="29" spans="2:11">
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" t="s">
+        <v>74</v>
+      </c>
+      <c r="K29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="8:11">
+      <c r="H30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/DataConfig/Datas/__beans__.xlsx
+++ b/DataConfig/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21840" windowHeight="17655"/>
+    <workbookView windowWidth="23475" windowHeight="15210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
   <si>
     <t>##var</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>end_value</t>
+  </si>
+  <si>
+    <t>common.value_region_param</t>
+  </si>
+  <si>
+    <t>param</t>
   </si>
   <si>
     <t>common.weather_group</t>
@@ -1192,15 +1198,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="22.2666666666667" customWidth="1"/>
+    <col min="2" max="2" width="23.2" customWidth="1"/>
     <col min="3" max="3" width="20.6333333333333" customWidth="1"/>
     <col min="4" max="5" width="12.25" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
@@ -1398,51 +1404,45 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" ht="13" customHeight="1" spans="2:9">
       <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="8:11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="8:9">
       <c r="H14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s">
         <v>21</v>
       </c>
-      <c r="K14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="8:11">
+    </row>
+    <row r="15" spans="8:9">
       <c r="H15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
         <v>44</v>
       </c>
-      <c r="K15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="8:11">
       <c r="H16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s">
         <v>47</v>
@@ -1450,174 +1450,207 @@
     </row>
     <row r="17" spans="8:11">
       <c r="H17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="8:11">
       <c r="H18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="8:11">
       <c r="H19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="8:11">
       <c r="H20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="K20" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="8:11">
       <c r="H21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="8:11">
       <c r="H22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="8:11">
+      <c r="H23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" t="s">
         <v>21</v>
       </c>
-      <c r="K22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" t="s">
-        <v>61</v>
-      </c>
-      <c r="I23" t="s">
-        <v>62</v>
-      </c>
       <c r="K23" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="8:11">
       <c r="H24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I24" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="8:11">
       <c r="H25" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I25" t="s">
         <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="K26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="8:11">
       <c r="H27" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="K27" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="8:11">
       <c r="H28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I28" t="s">
         <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="8:11">
       <c r="H30" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="I30" t="s">
         <v>21</v>
       </c>
       <c r="K30" t="s">
-        <v>47</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="8:11">
+      <c r="H31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32" t="s">
+        <v>76</v>
+      </c>
+      <c r="K32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11">
+      <c r="H33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Datas/__beans__.xlsx
+++ b/DataConfig/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23475" windowHeight="15210"/>
+    <workbookView windowWidth="19725" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="88">
   <si>
     <t>##var</t>
   </si>
@@ -251,6 +251,33 @@
   </si>
   <si>
     <t>weight</t>
+  </si>
+  <si>
+    <t>phone.news_comment</t>
+  </si>
+  <si>
+    <t>nick_name</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>昵称</t>
+  </si>
+  <si>
+    <t>评论</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>点赞</t>
+  </si>
+  <si>
+    <t>unlike</t>
+  </si>
+  <si>
+    <t>点踩</t>
   </si>
 </sst>
 </file>
@@ -1198,10 +1225,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1653,6 +1680,53 @@
         <v>49</v>
       </c>
     </row>
+    <row r="34" spans="2:11">
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="8:11">
+      <c r="H35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" t="s">
+        <v>81</v>
+      </c>
+      <c r="K35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="8:11">
+      <c r="H36" t="s">
+        <v>84</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="8:11">
+      <c r="H37" t="s">
+        <v>86</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
